--- a/SQL-Interview Questions.xlsx
+++ b/SQL-Interview Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb456a56f5fce3a8/Documents/GitHub/SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{95B13C9A-E312-4E4E-B908-70794ED4B287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E10EAB84-67A1-44B2-B671-66346985584C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{95B13C9A-E312-4E4E-B908-70794ED4B287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E83EA37-505C-42BF-AF28-8D4FBC3B7610}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FAD70293-CACE-48DC-AB3E-3326066BB5C7}"/>
   </bookViews>
@@ -34,12 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sr.</t>
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>What is SQL?</t>
+  </si>
+  <si>
+    <t>What is diffrenece between SQL and MYSQL?</t>
+  </si>
+  <si>
+    <t>What is MySQL?</t>
   </si>
 </sst>
 </file>
@@ -92,6 +101,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,19 +404,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCAE7A6-08C2-4CD5-A9CA-BA311912D849}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -414,6 +427,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL-Interview Questions.xlsx
+++ b/SQL-Interview Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb456a56f5fce3a8/Documents/GitHub/SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{95B13C9A-E312-4E4E-B908-70794ED4B287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E83EA37-505C-42BF-AF28-8D4FBC3B7610}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{95B13C9A-E312-4E4E-B908-70794ED4B287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68BA4252-BB7F-4EC1-8258-C96F0DEA4118}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FAD70293-CACE-48DC-AB3E-3326066BB5C7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sr.</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>What is MySQL?</t>
+  </si>
+  <si>
+    <t>What are different subsets (sub-languages) of SQL?</t>
+  </si>
+  <si>
+    <t>What do you mean by DBMS? What are its different types?</t>
+  </si>
+  <si>
+    <t>What is RDBMS? How it is different from DBMS?</t>
+  </si>
+  <si>
+    <t>What is self join?</t>
+  </si>
+  <si>
+    <t>What is Select statement?</t>
+  </si>
+  <si>
+    <t>What are common clauses used with select query?</t>
+  </si>
+  <si>
+    <t>What are union, minus, intersect commands?</t>
+  </si>
+  <si>
+    <t>What is cursor? How to use cursor?</t>
+  </si>
+  <si>
+    <t>What are different types of relationships in sql?</t>
+  </si>
+  <si>
+    <t>What is OLTP?</t>
+  </si>
+  <si>
+    <t>What is difference between OLTP and OLAP?</t>
   </si>
 </sst>
 </file>
@@ -404,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCAE7A6-08C2-4CD5-A9CA-BA311912D849}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -448,7 +481,74 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
